--- a/sulamericana/datasets_sula/1_classificacao_por_jogo_oitavas_sula.xlsx
+++ b/sulamericana/datasets_sula/1_classificacao_por_jogo_oitavas_sula.xlsx
@@ -553,7 +553,7 @@
         <v>73.099853515625</v>
       </c>
       <c r="J2">
-        <v>189.2099609375</v>
+        <v>271.31005859375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>-73.099853515625</v>
       </c>
       <c r="J3">
-        <v>116.110107421875</v>
+        <v>194.090087890625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -671,7 +671,7 @@
         <v>2.24951171875</v>
       </c>
       <c r="J2">
-        <v>174.65966796875</v>
+        <v>279.6796875</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>-2.24951171875</v>
       </c>
       <c r="J3">
-        <v>172.41015625</v>
+        <v>261.81005859375</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>31.1494140625</v>
       </c>
       <c r="J2">
-        <v>175.009765625</v>
+        <v>244</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>-31.1494140625</v>
       </c>
       <c r="J3">
-        <v>143.8603515625</v>
+        <v>241.060546875</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>27.4296875</v>
       </c>
       <c r="J2">
-        <v>213.94970703125</v>
+        <v>295.14990234375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>-27.4296875</v>
       </c>
       <c r="J3">
-        <v>186.52001953125</v>
+        <v>288.31982421875</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>56.0703125</v>
       </c>
       <c r="J2">
-        <v>190.17041015625</v>
+        <v>307.97021484375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>-56.0703125</v>
       </c>
       <c r="J3">
-        <v>134.10009765625</v>
+        <v>232.30029296875</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>16.76025390625</v>
       </c>
       <c r="J2">
-        <v>196.669921875</v>
+        <v>286.4697265625</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>-16.76025390625</v>
       </c>
       <c r="J3">
-        <v>179.90966796875</v>
+        <v>278.009765625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1261,7 +1261,7 @@
         <v>6.4306640625</v>
       </c>
       <c r="J2">
-        <v>196.9404296875</v>
+        <v>286.84033203125</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>-6.4306640625</v>
       </c>
       <c r="J3">
-        <v>190.509765625</v>
+        <v>290.10986328125</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1379,7 +1379,7 @@
         <v>3.7802734375</v>
       </c>
       <c r="J2">
-        <v>190.2099609375</v>
+        <v>288.7099609375</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>-3.7802734375</v>
       </c>
       <c r="J3">
-        <v>186.4296875</v>
+        <v>279.11962890625</v>
       </c>
       <c r="K3">
         <v>2</v>
